--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62852.99289906439</v>
+        <v>12397673.050582</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62852.99289906439</v>
+        <v>12397673.050582</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28363.58948094975</v>
+        <v>3757790.649514288</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28363.58948094975</v>
+        <v>3757790.649514288</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495914372.885954</v>
+        <v>59565148.11782421</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13016.84332706365</v>
+        <v>1448544.234676054</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24588.82623730491</v>
+        <v>2670703.566025253</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36160.80914754618</v>
+        <v>3892862.897374453</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48685.81454559325</v>
+        <v>4948417.488630276</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60467.13852743437</v>
+        <v>6194675.578610179</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72120.61153729341</v>
+        <v>7415263.05529483</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83774.08454715251</v>
+        <v>8635850.531979484</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95427.55755701161</v>
+        <v>9856438.008664142</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107658.0553275285</v>
+        <v>10891977.0943416</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119859.515352751</v>
+        <v>11998554.57820055</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131999.1536914956</v>
+        <v>13098578.96329284</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144138.7920302401</v>
+        <v>14198603.34838514</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156278.4303689847</v>
+        <v>15298627.73347744</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>168620.509988398</v>
+        <v>16356599.87695634</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182800.4110105967</v>
+        <v>17099850.26860907</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>287.0000000000287</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>208</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>415</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
